--- a/myapp/files/9_MethodComparePercent/Scenario 320.xlsx
+++ b/myapp/files/9_MethodComparePercent/Scenario 320.xlsx
@@ -581,10 +581,10 @@
         <v>12</v>
       </c>
       <c r="E2" t="n">
-        <v>3886</v>
+        <v>10479</v>
       </c>
       <c r="F2" t="n">
-        <v>4.69510795365303</v>
+        <v>1.90246054468576</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -593,10 +593,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J2" t="n">
-        <v>2.17391304347826</v>
+        <v>1.15830115830116</v>
       </c>
       <c r="K2" t="n">
         <v>1</v>
@@ -619,10 +619,10 @@
         <v>14</v>
       </c>
       <c r="E3" t="n">
-        <v>1972</v>
+        <v>14446</v>
       </c>
       <c r="F3" t="n">
-        <v>2.38259209588362</v>
+        <v>2.62266867339732</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -631,10 +631,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J3" t="n">
-        <v>2.17391304347826</v>
+        <v>1.15830115830116</v>
       </c>
       <c r="K3" t="n">
         <v>1</v>
@@ -657,10 +657,10 @@
         <v>16</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>11304</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>2.0522391446825</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
@@ -669,10 +669,10 @@
         <v>1.40845070422535</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>1.15830115830116</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -695,10 +695,10 @@
         <v>18</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>17988</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>3.26571812938329</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
@@ -707,10 +707,10 @@
         <v>1.40845070422535</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>2.31660231660232</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -733,10 +733,10 @@
         <v>20</v>
       </c>
       <c r="E6" t="n">
-        <v>5218</v>
+        <v>28644</v>
       </c>
       <c r="F6" t="n">
-        <v>6.30444500827624</v>
+        <v>5.20031299188654</v>
       </c>
       <c r="G6" t="n">
         <v>3</v>
@@ -745,10 +745,10 @@
         <v>4.22535211267606</v>
       </c>
       <c r="I6" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="J6" t="n">
-        <v>4.34782608695652</v>
+        <v>3.47490347490348</v>
       </c>
       <c r="K6" t="n">
         <v>6</v>
@@ -771,10 +771,10 @@
         <v>12</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>6078</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>1.10345979488502</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>0.772200772200772</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -809,10 +809,10 @@
         <v>14</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>16975</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>3.08180816356912</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
@@ -821,10 +821,10 @@
         <v>1.40845070422535</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>2.31660231660232</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -847,10 +847,10 @@
         <v>16</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>31368</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>5.69485469660302</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -859,10 +859,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>3.47490347490348</v>
       </c>
       <c r="K9" t="n">
         <v>4</v>
@@ -885,10 +885,10 @@
         <v>18</v>
       </c>
       <c r="E10" t="n">
-        <v>8561</v>
+        <v>39692</v>
       </c>
       <c r="F10" t="n">
-        <v>10.3434943878599</v>
+        <v>7.2060753831155</v>
       </c>
       <c r="G10" t="n">
         <v>2</v>
@@ -897,10 +897,10 @@
         <v>2.8169014084507</v>
       </c>
       <c r="I10" t="n">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="J10" t="n">
-        <v>8.69565217391304</v>
+        <v>6.56370656370656</v>
       </c>
       <c r="K10" t="n">
         <v>6</v>
@@ -923,10 +923,10 @@
         <v>20</v>
       </c>
       <c r="E11" t="n">
-        <v>8039</v>
+        <v>38577</v>
       </c>
       <c r="F11" t="n">
-        <v>9.71280824483188</v>
+        <v>7.00364733584719</v>
       </c>
       <c r="G11" t="n">
         <v>5</v>
@@ -935,10 +935,10 @@
         <v>7.04225352112676</v>
       </c>
       <c r="I11" t="n">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="J11" t="n">
-        <v>13.0434782608696</v>
+        <v>7.72200772200772</v>
       </c>
       <c r="K11" t="n">
         <v>4</v>
@@ -961,10 +961,10 @@
         <v>12</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>6038</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>1.0961978021579</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -973,10 +973,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.772200772200772</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -999,10 +999,10 @@
         <v>14</v>
       </c>
       <c r="E13" t="n">
-        <v>405</v>
+        <v>14688</v>
       </c>
       <c r="F13" t="n">
-        <v>0.489325455797601</v>
+        <v>2.66660372939636</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1011,10 +1011,10 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="J13" t="n">
-        <v>2.17391304347826</v>
+        <v>3.08880308880309</v>
       </c>
       <c r="K13" t="n">
         <v>1</v>
@@ -1037,10 +1037,10 @@
         <v>16</v>
       </c>
       <c r="E14" t="n">
-        <v>8446</v>
+        <v>32051</v>
       </c>
       <c r="F14" t="n">
-        <v>10.2045501226334</v>
+        <v>5.8188532224185</v>
       </c>
       <c r="G14" t="n">
         <v>4</v>
@@ -1049,10 +1049,10 @@
         <v>5.63380281690141</v>
       </c>
       <c r="I14" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="J14" t="n">
-        <v>10.8695652173913</v>
+        <v>6.17760617760618</v>
       </c>
       <c r="K14" t="n">
         <v>8</v>
@@ -1075,10 +1075,10 @@
         <v>18</v>
       </c>
       <c r="E15" t="n">
-        <v>4797</v>
+        <v>39382</v>
       </c>
       <c r="F15" t="n">
-        <v>5.79578817644713</v>
+        <v>7.14979493948037</v>
       </c>
       <c r="G15" t="n">
         <v>12</v>
@@ -1087,16 +1087,16 @@
         <v>16.9014084507042</v>
       </c>
       <c r="I15" t="n">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="J15" t="n">
-        <v>6.52173913043478</v>
+        <v>8.10810810810811</v>
       </c>
       <c r="K15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L15" t="n">
-        <v>5.63380281690141</v>
+        <v>7.04225352112676</v>
       </c>
     </row>
     <row r="16">
@@ -1113,10 +1113,10 @@
         <v>20</v>
       </c>
       <c r="E16" t="n">
-        <v>6482</v>
+        <v>41699</v>
       </c>
       <c r="F16" t="n">
-        <v>7.83162371476555</v>
+        <v>7.57044586819846</v>
       </c>
       <c r="G16" t="n">
         <v>10</v>
@@ -1125,10 +1125,10 @@
         <v>14.0845070422535</v>
       </c>
       <c r="I16" t="n">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="J16" t="n">
-        <v>8.69565217391304</v>
+        <v>8.49420849420849</v>
       </c>
       <c r="K16" t="n">
         <v>6</v>
@@ -1151,10 +1151,10 @@
         <v>12</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>3326</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>0.603834695259553</v>
       </c>
       <c r="G17" t="n">
         <v>1</v>
@@ -1163,10 +1163,10 @@
         <v>1.40845070422535</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>1.15830115830116</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1189,10 +1189,10 @@
         <v>14</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>6525</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>1.18461256361052</v>
       </c>
       <c r="G18" t="n">
         <v>2</v>
@@ -1201,10 +1201,10 @@
         <v>2.8169014084507</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>2.31660231660232</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1227,10 +1227,10 @@
         <v>16</v>
       </c>
       <c r="E19" t="n">
-        <v>805</v>
+        <v>17985</v>
       </c>
       <c r="F19" t="n">
-        <v>0.972609856585354</v>
+        <v>3.26517347992876</v>
       </c>
       <c r="G19" t="n">
         <v>6</v>
@@ -1239,10 +1239,10 @@
         <v>8.45070422535211</v>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J19" t="n">
-        <v>2.17391304347826</v>
+        <v>3.86100386100386</v>
       </c>
       <c r="K19" t="n">
         <v>1</v>
@@ -1265,10 +1265,10 @@
         <v>18</v>
       </c>
       <c r="E20" t="n">
-        <v>1312</v>
+        <v>34017</v>
       </c>
       <c r="F20" t="n">
-        <v>1.58517283458383</v>
+        <v>6.17578016495616</v>
       </c>
       <c r="G20" t="n">
         <v>9</v>
@@ -1277,10 +1277,10 @@
         <v>12.6760563380282</v>
       </c>
       <c r="I20" t="n">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="J20" t="n">
-        <v>4.34782608695652</v>
+        <v>8.88030888030888</v>
       </c>
       <c r="K20" t="n">
         <v>5</v>
@@ -1303,10 +1303,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="n">
-        <v>832</v>
+        <v>47618</v>
       </c>
       <c r="F21" t="n">
-        <v>1.00523155363853</v>
+        <v>8.6450392419932</v>
       </c>
       <c r="G21" t="n">
         <v>7</v>
@@ -1315,16 +1315,16 @@
         <v>9.85915492957746</v>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="J21" t="n">
-        <v>2.17391304347826</v>
+        <v>9.26640926640927</v>
       </c>
       <c r="K21" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L21" t="n">
-        <v>15.4929577464789</v>
+        <v>14.0845070422535</v>
       </c>
     </row>
     <row r="22">
@@ -1341,10 +1341,10 @@
         <v>12</v>
       </c>
       <c r="E22" t="n">
-        <v>2368</v>
+        <v>8418</v>
       </c>
       <c r="F22" t="n">
-        <v>2.8610436526635</v>
+        <v>1.5282863694212</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -1353,10 +1353,10 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J22" t="n">
-        <v>2.17391304347826</v>
+        <v>1.15830115830116</v>
       </c>
       <c r="K22" t="n">
         <v>1</v>
@@ -1379,10 +1379,10 @@
         <v>14</v>
       </c>
       <c r="E23" t="n">
-        <v>2592</v>
+        <v>8655</v>
       </c>
       <c r="F23" t="n">
-        <v>3.13168291710464</v>
+        <v>1.57131367632935</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -1391,10 +1391,10 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J23" t="n">
-        <v>2.17391304347826</v>
+        <v>1.54440154440154</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -1417,10 +1417,10 @@
         <v>16</v>
       </c>
       <c r="E24" t="n">
-        <v>2592</v>
+        <v>13091</v>
       </c>
       <c r="F24" t="n">
-        <v>3.13168291710464</v>
+        <v>2.37666866976633</v>
       </c>
       <c r="G24" t="n">
         <v>1</v>
@@ -1429,10 +1429,10 @@
         <v>1.40845070422535</v>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J24" t="n">
-        <v>2.17391304347826</v>
+        <v>1.93050193050193</v>
       </c>
       <c r="K24" t="n">
         <v>3</v>
@@ -1455,10 +1455,10 @@
         <v>18</v>
       </c>
       <c r="E25" t="n">
-        <v>11055</v>
+        <v>25841</v>
       </c>
       <c r="F25" t="n">
-        <v>13.3567726267715</v>
+        <v>4.69142885153401</v>
       </c>
       <c r="G25" t="n">
         <v>2</v>
@@ -1467,16 +1467,16 @@
         <v>2.8169014084507</v>
       </c>
       <c r="I25" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="J25" t="n">
-        <v>13.0434782608696</v>
+        <v>6.17760617760618</v>
       </c>
       <c r="K25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L25" t="n">
-        <v>4.22535211267606</v>
+        <v>5.63380281690141</v>
       </c>
     </row>
     <row r="26">
@@ -1493,10 +1493,10 @@
         <v>20</v>
       </c>
       <c r="E26" t="n">
-        <v>13405</v>
+        <v>35928</v>
       </c>
       <c r="F26" t="n">
-        <v>16.1960684813996</v>
+        <v>6.52272186749405</v>
       </c>
       <c r="G26" t="n">
         <v>4</v>
@@ -1505,16 +1505,16 @@
         <v>5.63380281690141</v>
       </c>
       <c r="I26" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="J26" t="n">
-        <v>13.0434782608696</v>
+        <v>6.94980694980695</v>
       </c>
       <c r="K26" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L26" t="n">
-        <v>8.45070422535211</v>
+        <v>7.04225352112676</v>
       </c>
     </row>
   </sheetData>
